--- a/RAW/DitaAja_Trained_Data.xlsx
+++ b/RAW/DitaAja_Trained_Data.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
-    <sheet name="Filtered" sheetId="2" r:id="rId2"/>
+    <sheet name="Train" sheetId="2" r:id="rId2"/>
+    <sheet name="Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtered!$A$1:$B$625</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Train!$A$1:$B$624</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="1525">
   <si>
     <t>id</t>
   </si>
@@ -4209,6 +4210,390 @@
   </si>
   <si>
     <t>butuh support regional</t>
+  </si>
+  <si>
+    <t>connect wifi, vpn</t>
+  </si>
+  <si>
+    <t>cara connect wifi dan vpn</t>
+  </si>
+  <si>
+    <t>cara connect wifi dan login visa</t>
+  </si>
+  <si>
+    <t>suara teams tidak jelas</t>
+  </si>
+  <si>
+    <t>suara teams putus putus</t>
+  </si>
+  <si>
+    <t>suara putus putus</t>
+  </si>
+  <si>
+    <t>kok suara di teams saya putus putus ya?</t>
+  </si>
+  <si>
+    <t>suara dari teams kurang jelas</t>
+  </si>
+  <si>
+    <t>microsoft teams suara putus putus</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengatasi suara putus putus pada microsoft teams</t>
+  </si>
+  <si>
+    <t>suara kurang jelas saat menggunakan teams</t>
+  </si>
+  <si>
+    <t>suaranya kurang jelas saat meeting dengan teams</t>
+  </si>
+  <si>
+    <t>cara connect ke visa</t>
+  </si>
+  <si>
+    <t>cara connect ke wifi</t>
+  </si>
+  <si>
+    <t>cara setting email</t>
+  </si>
+  <si>
+    <t>gagal connect, vpn</t>
+  </si>
+  <si>
+    <t>gagal connect ke vpn</t>
+  </si>
+  <si>
+    <t>cara reset password domain</t>
+  </si>
+  <si>
+    <t>panduan cara membuat ticket</t>
+  </si>
+  <si>
+    <t>bagaimana cara membuat ticket</t>
+  </si>
+  <si>
+    <t>panduan cara connect visa</t>
+  </si>
+  <si>
+    <t>bagaimana cara setting email</t>
+  </si>
+  <si>
+    <t>bagaimana mengatasi laptop error</t>
+  </si>
+  <si>
+    <t>gagal connect, login, network</t>
+  </si>
+  <si>
+    <t>gagal login network</t>
+  </si>
+  <si>
+    <t>unlock domain, domain</t>
+  </si>
+  <si>
+    <t>Unlock user domain</t>
+  </si>
+  <si>
+    <t>Bagaimana cara atasi laptop error</t>
+  </si>
+  <si>
+    <t>Bagaimana cara Login VPN</t>
+  </si>
+  <si>
+    <t>Cara Login VISA</t>
+  </si>
+  <si>
+    <t>Cara buat ticket visa management</t>
+  </si>
+  <si>
+    <t>Cara menggunakan moana</t>
+  </si>
+  <si>
+    <t>tidak bisa connect ke wifi</t>
+  </si>
+  <si>
+    <t>tidak bisa connect ke corporate network</t>
+  </si>
+  <si>
+    <t>reset password, password</t>
+  </si>
+  <si>
+    <t>password saya expired</t>
+  </si>
+  <si>
+    <t>panduan reset password</t>
+  </si>
+  <si>
+    <t>domain, unlock domain</t>
+  </si>
+  <si>
+    <t>User domain saya ke lock</t>
+  </si>
+  <si>
+    <t>Cara install moana</t>
+  </si>
+  <si>
+    <t>bagaimana cara connect visa dan vpn</t>
+  </si>
+  <si>
+    <t>Connect ke byod</t>
+  </si>
+  <si>
+    <t>Cara connect wifi</t>
+  </si>
+  <si>
+    <t>domain saya terkunci</t>
+  </si>
+  <si>
+    <t>kenapa laptop saya bermasalah</t>
+  </si>
+  <si>
+    <t>gagal connect visa</t>
+  </si>
+  <si>
+    <t>cara membuat ticket regional support</t>
+  </si>
+  <si>
+    <t>login onedrive dari web browser</t>
+  </si>
+  <si>
+    <t>panduan login onedrive dari browser</t>
+  </si>
+  <si>
+    <t>cara login dsc dengan passport</t>
+  </si>
+  <si>
+    <t>Bagaimana cara backup email</t>
+  </si>
+  <si>
+    <t>cara connect wifi dan connect visa</t>
+  </si>
+  <si>
+    <t>cara menggunakan visa</t>
+  </si>
+  <si>
+    <t>wifi, vpn, visa</t>
+  </si>
+  <si>
+    <t>cara terhubung ke intranet</t>
+  </si>
+  <si>
+    <t>panduan connect vpn</t>
+  </si>
+  <si>
+    <t>panduan login ke visa</t>
+  </si>
+  <si>
+    <t>domain, reset password, password</t>
+  </si>
+  <si>
+    <t>bagaimana cara unlock domain dan reset password</t>
+  </si>
+  <si>
+    <t>reset password, moana, password</t>
+  </si>
+  <si>
+    <t>reset password dari moana</t>
+  </si>
+  <si>
+    <t>Bagaimana cara atasi laptop yang error</t>
+  </si>
+  <si>
+    <t>email, gagal connect</t>
+  </si>
+  <si>
+    <t>gagal connect email</t>
+  </si>
+  <si>
+    <t>bagaimana cara mengatasi network error</t>
+  </si>
+  <si>
+    <t>panduan cara connect vpn</t>
+  </si>
+  <si>
+    <t>gagal connect, visa, vpn, wifi</t>
+  </si>
+  <si>
+    <t>gagal connect ke intranet</t>
+  </si>
+  <si>
+    <t>visa, vpn, wifi</t>
+  </si>
+  <si>
+    <t>bagaimana saya terhubung ke intranet</t>
+  </si>
+  <si>
+    <t>tidak bisa connect ke izone</t>
+  </si>
+  <si>
+    <t>bagaimana cara connect wifi byod</t>
+  </si>
+  <si>
+    <t>domain saya tidak dapat di akses</t>
+  </si>
+  <si>
+    <t>cara buat folder di email</t>
+  </si>
+  <si>
+    <t>bagaimana cara login ke onedrive</t>
+  </si>
+  <si>
+    <t>create ticket, wifi</t>
+  </si>
+  <si>
+    <t>bagaimana cara buat ticket dan connect wifi</t>
+  </si>
+  <si>
+    <t>vpn, wifi</t>
+  </si>
+  <si>
+    <t>gimana caranya saya connect vpn dan wifi</t>
+  </si>
+  <si>
+    <t>saya ingin connect ke vpn dan wifi</t>
+  </si>
+  <si>
+    <t>reset password, wifi</t>
+  </si>
+  <si>
+    <t>cara reset password dan connect ke wifi</t>
+  </si>
+  <si>
+    <t>connect ke wifi tapi sebelum itu reset password dulu</t>
+  </si>
+  <si>
+    <t>moana, reset password, password</t>
+  </si>
+  <si>
+    <t>menggunakan moana bagaimana caranya saya mereset password domain</t>
+  </si>
+  <si>
+    <t>saya mau reset password dengan moana</t>
+  </si>
+  <si>
+    <t>saya ingin ubah password saya</t>
+  </si>
+  <si>
+    <t>bantu saya untuk merubah password</t>
+  </si>
+  <si>
+    <t>cara connect dsc</t>
+  </si>
+  <si>
+    <t>bagaimana cara menggunakan DSC</t>
+  </si>
+  <si>
+    <t>bagaimana cara menambah user di DSC</t>
+  </si>
+  <si>
+    <t>saya ingin install aplikasi</t>
+  </si>
+  <si>
+    <t>bagaimana cara melakukan instalasi aplikasi</t>
+  </si>
+  <si>
+    <t>panduan cara instalasi aplikasi lewat software center</t>
+  </si>
+  <si>
+    <t>cara install winrar di laptop</t>
+  </si>
+  <si>
+    <t>cara install aplikasi baru</t>
+  </si>
+  <si>
+    <t>tidak bisa connect ke intranet</t>
+  </si>
+  <si>
+    <t>tidak terhubung ke jaringan sama sekali</t>
+  </si>
+  <si>
+    <t>saya mau buat ticket komplain visa</t>
+  </si>
+  <si>
+    <t>visa saya error dan saya mau buat ticket</t>
+  </si>
+  <si>
+    <t>bantu saya untuk membuat ticket komplain visa dong</t>
+  </si>
+  <si>
+    <t>wifi, visa, vpn</t>
+  </si>
+  <si>
+    <t>bagaimana cara connect izone visa dan vpn</t>
+  </si>
+  <si>
+    <t>saya ingin connect ke byod visa dan vpn</t>
+  </si>
+  <si>
+    <t>cara buat komplain visa management</t>
+  </si>
+  <si>
+    <t>panduan buat komplain visa management</t>
+  </si>
+  <si>
+    <t>visa, ticket</t>
+  </si>
+  <si>
+    <t>cara membuat ticket visa management dan connect visa</t>
+  </si>
+  <si>
+    <t>vpn, ticket</t>
+  </si>
+  <si>
+    <t>saya ingin buat ticket visa lalu saya juga ingin tahu cara connect vpn</t>
+  </si>
+  <si>
+    <t>cara install sap</t>
+  </si>
+  <si>
+    <t>cara atasi password expired</t>
+  </si>
+  <si>
+    <t>domain saya minta di unlock</t>
+  </si>
+  <si>
+    <t>cara cek status ticket</t>
+  </si>
+  <si>
+    <t>bagaimana cara check status ticket</t>
+  </si>
+  <si>
+    <t>cara check status ticket saya</t>
+  </si>
+  <si>
+    <t>cara request ticket di ditaaja</t>
+  </si>
+  <si>
+    <t>saya ingin buat ticket</t>
+  </si>
+  <si>
+    <t>butuh bantuan support ticket</t>
+  </si>
+  <si>
+    <t>cara mengecek status ticket saya?</t>
+  </si>
+  <si>
+    <t>bagaimana flow handle ticket di ditaaja?</t>
+  </si>
+  <si>
+    <t>ditaaja itu apa</t>
+  </si>
+  <si>
+    <t>cara menggunakan ditaaja</t>
+  </si>
+  <si>
+    <t>suara putus putus saat meeting dengan teams</t>
+  </si>
+  <si>
+    <t>suara kurang jelas pas meeting</t>
+  </si>
+  <si>
+    <t>saya butuh bantuan untuk buat ticket support</t>
+  </si>
+  <si>
+    <t>saya ingin request ticket</t>
+  </si>
+  <si>
+    <t>cara menggunakan bot ditaaja</t>
   </si>
 </sst>
 </file>
@@ -4217,17 +4602,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4238,22 +4629,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4276,7 +4652,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4284,7 +4660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4292,7 +4668,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4306,14 +4727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -4323,14 +4736,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -4339,36 +4752,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4383,25 +4774,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4419,13 +4870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4437,37 +4888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4479,13 +4906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4497,7 +4924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4509,19 +4942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4533,37 +4954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4580,8 +4971,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4604,73 +5060,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4679,209 +5070,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5156,11 +5548,11 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="3" width="104" customWidth="1"/>
-    <col min="4" max="4" width="8.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="11.4285714285714"/>
+    <col min="4" max="4" width="8.57333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.4266666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5194,7 +5586,7 @@
         <f>MAX(A2:A9999)</f>
         <v>1359</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>44977</v>
       </c>
     </row>
@@ -19617,16 +20009,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView topLeftCell="B642" workbookViewId="0">
+      <selection activeCell="B648" sqref="B648"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="104" customWidth="1"/>
-    <col min="2" max="2" width="156.285714285714" customWidth="1"/>
+    <col min="2" max="2" width="156.286666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -24279,26 +24671,26 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>1141</v>
+        <v>666</v>
       </c>
       <c r="B582" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>666</v>
+        <v>67</v>
       </c>
       <c r="B583" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>67</v>
+        <v>1147</v>
       </c>
       <c r="B584" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -24306,39 +24698,39 @@
         <v>1147</v>
       </c>
       <c r="B585" t="s">
-        <v>1148</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>1147</v>
+        <v>9</v>
       </c>
       <c r="B586" t="s">
-        <v>1365</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B587" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>61</v>
+        <v>1159</v>
       </c>
       <c r="B588" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B589" t="s">
-        <v>1158</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -24346,23 +24738,23 @@
         <v>1159</v>
       </c>
       <c r="B590" t="s">
-        <v>1366</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B591" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1161</v>
+        <v>1367</v>
       </c>
       <c r="B592" t="s">
-        <v>1162</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -24370,167 +24762,167 @@
         <v>1367</v>
       </c>
       <c r="B593" t="s">
-        <v>1368</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>1367</v>
+        <v>219</v>
       </c>
       <c r="B594" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="B595" t="s">
-        <v>1167</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>67</v>
+        <v>1350</v>
       </c>
       <c r="B596" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>1350</v>
+        <v>1174</v>
       </c>
       <c r="B597" t="s">
-        <v>1370</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B598" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>1178</v>
+        <v>1371</v>
       </c>
       <c r="B599" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>1371</v>
+        <v>847</v>
       </c>
       <c r="B600" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>847</v>
+        <v>1185</v>
       </c>
       <c r="B601" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1185</v>
+        <v>142</v>
       </c>
       <c r="B602" t="s">
-        <v>1186</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>142</v>
+        <v>1373</v>
       </c>
       <c r="B603" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1373</v>
+        <v>1200</v>
       </c>
       <c r="B604" t="s">
-        <v>1374</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1200</v>
+        <v>941</v>
       </c>
       <c r="B605" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>941</v>
+        <v>67</v>
       </c>
       <c r="B606" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B607" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>9</v>
+        <v>542</v>
       </c>
       <c r="B608" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>542</v>
+        <v>1213</v>
       </c>
       <c r="B609" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1213</v>
+        <v>1375</v>
       </c>
       <c r="B610" t="s">
-        <v>1214</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1375</v>
+        <v>1219</v>
       </c>
       <c r="B611" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1219</v>
+        <v>1111</v>
       </c>
       <c r="B612" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1111</v>
+        <v>75</v>
       </c>
       <c r="B613" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -24538,47 +24930,47 @@
         <v>75</v>
       </c>
       <c r="B614" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B615" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>26</v>
+        <v>1377</v>
       </c>
       <c r="B616" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>1377</v>
+        <v>16</v>
       </c>
       <c r="B617" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="B618" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="B619" t="s">
-        <v>1246</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -24586,7 +24978,7 @@
         <v>83</v>
       </c>
       <c r="B620" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -24594,15 +24986,15 @@
         <v>83</v>
       </c>
       <c r="B621" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B622" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -24610,7 +25002,7 @@
         <v>142</v>
       </c>
       <c r="B623" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -24618,15 +25010,15 @@
         <v>142</v>
       </c>
       <c r="B624" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>142</v>
+        <v>1384</v>
       </c>
       <c r="B625" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -24634,7 +25026,7 @@
         <v>1384</v>
       </c>
       <c r="B626" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -24642,23 +25034,23 @@
         <v>1384</v>
       </c>
       <c r="B627" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1384</v>
+        <v>142</v>
       </c>
       <c r="B628" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>142</v>
+        <v>1270</v>
       </c>
       <c r="B629" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -24666,7 +25058,7 @@
         <v>1270</v>
       </c>
       <c r="B630" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -24674,15 +25066,15 @@
         <v>1270</v>
       </c>
       <c r="B631" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1270</v>
+        <v>39</v>
       </c>
       <c r="B632" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -24690,15 +25082,15 @@
         <v>39</v>
       </c>
       <c r="B633" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B634" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -24706,7 +25098,7 @@
         <v>83</v>
       </c>
       <c r="B635" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -24714,22 +25106,947 @@
         <v>83</v>
       </c>
       <c r="B636" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>83</v>
+        <v>1397</v>
       </c>
       <c r="B637" t="s">
-        <v>1396</v>
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>5</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B625">
+  <autoFilter ref="A1:B624">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="29.4" customWidth="1"/>
+    <col min="2" max="2" width="62.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/RAW/DitaAja_Trained_Data.xlsx
+++ b/RAW/DitaAja_Trained_Data.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Train!$A$1:$B$624</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Train!$A$1:$B$623</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1717">
   <si>
     <t>id</t>
   </si>
@@ -3828,6 +3828,12 @@
     <t>Bot ditaaja</t>
   </si>
   <si>
+    <t>ticket request</t>
+  </si>
+  <si>
+    <t>aku mau ticket</t>
+  </si>
+  <si>
     <t>Kak dita Emailku tidak bisa connect</t>
   </si>
   <si>
@@ -3846,6 +3852,12 @@
     <t>Mohon setting laptop tdk tidak connect wifi network</t>
   </si>
   <si>
+    <t>gagal connect, vpn</t>
+  </si>
+  <si>
+    <t>Tidak bisa vpn</t>
+  </si>
+  <si>
     <t>wifi, gagal connect</t>
   </si>
   <si>
@@ -3858,9 +3870,18 @@
     <t>Konfigurasi laptop Application</t>
   </si>
   <si>
+    <t>vpn, gagal connect</t>
+  </si>
+  <si>
     <t>Waktu request vpn error authenticated by radius authentication</t>
   </si>
   <si>
+    <t>setting vpn, vpn, setting vpn</t>
+  </si>
+  <si>
+    <t>Tidak bisa vpn muncul error authenticated by radius authentication</t>
+  </si>
+  <si>
     <t>cara melakukan reset password</t>
   </si>
   <si>
@@ -3870,6 +3891,9 @@
     <t>password expired untuk updatenya gimana</t>
   </si>
   <si>
+    <t>vpn, setting vpn, setting vpn</t>
+  </si>
+  <si>
     <t>cara connect ke izone</t>
   </si>
   <si>
@@ -3882,6 +3906,9 @@
     <t>cara terhubung ke izone</t>
   </si>
   <si>
+    <t>VISA</t>
+  </si>
+  <si>
     <t>saya tidak bisa reset pasword</t>
   </si>
   <si>
@@ -3897,7 +3924,10 @@
     <t>Menu wifi di laptop tidak ada</t>
   </si>
   <si>
-    <t>Create ticket ke IT Support terkait Laptop</t>
+    <t>ticket, create, laptop, software</t>
+  </si>
+  <si>
+    <t>ticket ke IT Support terkait Laptop</t>
   </si>
   <si>
     <t>Network Wifi</t>
@@ -3927,6 +3957,9 @@
     <t>Error ganti password domain di laptop</t>
   </si>
   <si>
+    <t>Nggak bisa vpn</t>
+  </si>
+  <si>
     <t>DitaAja</t>
   </si>
   <si>
@@ -3945,6 +3978,18 @@
     <t>Panduan connect ke ssid corporate network dengan passport</t>
   </si>
   <si>
+    <t>ticket, create, request, laptop</t>
+  </si>
+  <si>
+    <t>ticket request laptop</t>
+  </si>
+  <si>
+    <t>vpn, vpn</t>
+  </si>
+  <si>
+    <t>vpn sinkron dengan oassport</t>
+  </si>
+  <si>
     <t>cek tipe memory laptop</t>
   </si>
   <si>
@@ -3996,7 +4041,7 @@
     <t>cara ubah password domain</t>
   </si>
   <si>
-    <t>saya tidak bisa connect vpn</t>
+    <t>saya tidak bisa vpn</t>
   </si>
   <si>
     <t>saya tidak bisa connect jaringan</t>
@@ -4032,7 +4077,7 @@
     <t>Mohon bantuan untuk bisa connect wifi abis ganti password tidak bisa connect</t>
   </si>
   <si>
-    <t>Kenapa tidak bisa create ticket di moana</t>
+    <t>Kenapa tidak bisa ticket di moana</t>
   </si>
   <si>
     <t>laptop, visa</t>
@@ -4041,10 +4086,28 @@
     <t>Visa dan laptop Management</t>
   </si>
   <si>
+    <t>ticket, create, ticket</t>
+  </si>
+  <si>
+    <t>Anda memilih kategori ticket IT Support</t>
+  </si>
+  <si>
+    <t>saya mau ticket untuk uninstall aplikasi di laptop</t>
+  </si>
+  <si>
+    <t>wifi, internet, certificate</t>
+  </si>
+  <si>
+    <t>gagal perso</t>
+  </si>
+  <si>
+    <t>Password tidak bisa di reset</t>
+  </si>
+  <si>
     <t>Gagal Perso</t>
   </si>
   <si>
-    <t>connect vpn, create ticket</t>
+    <t>vpn, ticket</t>
   </si>
   <si>
     <t>reset, reset password</t>
@@ -4053,7 +4116,7 @@
     <t>sudah dianggap expired sama komputerlaptop ktr</t>
   </si>
   <si>
-    <t>Create ticket</t>
+    <t>ticket keterangan dapatkan akses sumber daya</t>
   </si>
   <si>
     <t>dsc, gagal connect</t>
@@ -4065,12 +4128,21 @@
     <t>Bisa ticketin aja nggak</t>
   </si>
   <si>
+    <t>ticket visa tidak bisa login keterangan dapatkan akses sumber daya</t>
+  </si>
+  <si>
+    <t>ticket visa tidak bisa dsc keetrangan private akses</t>
+  </si>
+  <si>
     <t>Apakah bisa bantu reset password passport</t>
   </si>
   <si>
     <t>Untuk reset password Passport saya kak</t>
   </si>
   <si>
+    <t>ticket remedy terkait visa management</t>
+  </si>
+  <si>
     <t>storage</t>
   </si>
   <si>
@@ -4116,12 +4188,21 @@
     <t>cara membuat personal foleder di email</t>
   </si>
   <si>
+    <t>login, vpn, gagal connect</t>
+  </si>
+  <si>
     <t>Tidak bisa login VPN di laptop</t>
   </si>
   <si>
     <t>Suara tidak jelas</t>
   </si>
   <si>
+    <t>teams, visa</t>
+  </si>
+  <si>
+    <t>tidak bisa akses teams Aplikasi pada Visa</t>
+  </si>
+  <si>
     <t>aplikasi, sccm, software center</t>
   </si>
   <si>
@@ -4134,6 +4215,12 @@
     <t>Selamat siang rekan user laptop kendala full storage dan file tidak bisa dihapus mohon bantuannya</t>
   </si>
   <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>tidak bisa menggunakan Microsoft teams</t>
+  </si>
+  <si>
     <t>reset password, email, expired</t>
   </si>
   <si>
@@ -4146,6 +4233,12 @@
     <t>Laptop saya tidak bisa connect ke laptop network</t>
   </si>
   <si>
+    <t>Mau ticket aja</t>
+  </si>
+  <si>
+    <t>Visa Dekstop Management</t>
+  </si>
+  <si>
     <t>onedrive, reset</t>
   </si>
   <si>
@@ -4176,7 +4269,7 @@
     <t>ticket, visa</t>
   </si>
   <si>
-    <t>cara connect visa dan create ticket visa access management</t>
+    <t>cara connect visa dan ticket visa access management</t>
   </si>
   <si>
     <t>cara membuat ticket visa management dan connect ke visa</t>
@@ -4203,7 +4296,7 @@
     <t>minta tolong unlock domain saya</t>
   </si>
   <si>
-    <t>bagaimana cara create ticket regional support</t>
+    <t>bagaimana cara ticket regional support</t>
   </si>
   <si>
     <t>saya ingin membuat ticket regional support</t>
@@ -4248,6 +4341,381 @@
     <t>suaranya kurang jelas saat meeting dengan teams</t>
   </si>
   <si>
+    <t>Moana Error</t>
+  </si>
+  <si>
+    <t>Absen di moana tidak bisa login dan pasport tidak bisa konek dari HP</t>
+  </si>
+  <si>
+    <t>Tidak bisa absen di Moana sudah coba log out dan in tapi login nya error</t>
+  </si>
+  <si>
+    <t>Ganti password domain gagal di moana</t>
+  </si>
+  <si>
+    <t>Gagal Login Moana</t>
+  </si>
+  <si>
+    <t>Tidak bisa absen di moana</t>
+  </si>
+  <si>
+    <t>Gagal approval login moana</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect ke Wifi TWS BYOD</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect visa</t>
+  </si>
+  <si>
+    <t>tidak bisa buka visa</t>
+  </si>
+  <si>
+    <t>gagal connect, visa</t>
+  </si>
+  <si>
+    <t>Laptop fos tidak bisa koneksi VISA</t>
+  </si>
+  <si>
+    <t>Visa tidak bisa connect</t>
+  </si>
+  <si>
+    <t>Tidak bisa akses VISA</t>
+  </si>
+  <si>
+    <t>Cannot connect internet using wifi</t>
+  </si>
+  <si>
+    <t>Wifi nggak connect</t>
+  </si>
+  <si>
+    <t>Rules email tidak bisa jalan</t>
+  </si>
+  <si>
+    <t>Gagal connect tws byod</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect izone</t>
+  </si>
+  <si>
+    <t>Tidak bisa login visa</t>
+  </si>
+  <si>
+    <t>Wifi tidak muncul</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>Tidak bisa buka aplikasi Zoom</t>
+  </si>
+  <si>
+    <t>Back up outlook</t>
+  </si>
+  <si>
+    <t>Email tidak bisa connect</t>
+  </si>
+  <si>
+    <t>Wifi tidak mau connect</t>
+  </si>
+  <si>
+    <t>Maintenance intune visa</t>
+  </si>
+  <si>
+    <t>tidak bisa koneksi visa</t>
+  </si>
+  <si>
+    <t>Sap</t>
+  </si>
+  <si>
+    <t>Tidak bisa koneksi VPN selalu failed</t>
+  </si>
+  <si>
+    <t>teams, gagal connect</t>
+  </si>
+  <si>
+    <t>Login teams eror tidak bisa join teams</t>
+  </si>
+  <si>
+    <t>gagal connect, wifi, reset password</t>
+  </si>
+  <si>
+    <t>Wifi error habis ganti password</t>
+  </si>
+  <si>
+    <t>Wifi corporate tidak connect</t>
+  </si>
+  <si>
+    <t>tidak bisa login visa</t>
+  </si>
+  <si>
+    <t>Tidak bisa zoom</t>
+  </si>
+  <si>
+    <t>visa, onedrive</t>
+  </si>
+  <si>
+    <t>Visa tidak bisa connect OneDrive</t>
+  </si>
+  <si>
+    <t>tidak bisa connect ke corporate network</t>
+  </si>
+  <si>
+    <t>Dari tadi jam 08:00 sampai sekarang koneksi wifi masih problem.. mohon solusi</t>
+  </si>
+  <si>
+    <t>Network/wifi GraPARI lemah, sudah di bantu di cek pada perangkat modem ada settingan l limit speed penggunaan</t>
+  </si>
+  <si>
+    <t>outlook, gagal login</t>
+  </si>
+  <si>
+    <t>Tidak bisa login ke Outlook</t>
+  </si>
+  <si>
+    <t>wifi coorporate tidak konek</t>
+  </si>
+  <si>
+    <t>Reset password VPN</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect wifi (need certificate to sign in)</t>
+  </si>
+  <si>
+    <t>Outlook disconnect</t>
+  </si>
+  <si>
+    <t>setting vpn, vpn</t>
+  </si>
+  <si>
+    <t>setting VPN</t>
+  </si>
+  <si>
+    <t>Kendala wifi setelah ganti password tidak bisa connect wifi corp network</t>
+  </si>
+  <si>
+    <t>Wifi intranet tidak bisa tersambung, koneksi selalu gagal</t>
+  </si>
+  <si>
+    <t>Konek jaringan VPN</t>
+  </si>
+  <si>
+    <t>Tidak ada koneksi wifi</t>
+  </si>
+  <si>
+    <t>Kendala Koneksi Grapari Bogor wifi no koneksi</t>
+  </si>
+  <si>
+    <t>lan, gagal connect</t>
+  </si>
+  <si>
+    <t>LAN tidak bisa connect</t>
+  </si>
+  <si>
+    <t>kendala akses ke wifi corporate</t>
+  </si>
+  <si>
+    <t>internet, gagal connect</t>
+  </si>
+  <si>
+    <t>Tidak bisa koneksi wifi</t>
+  </si>
+  <si>
+    <t>network, gagal connect</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect coorporate network</t>
+  </si>
+  <si>
+    <t>Tak bisa connect corp network</t>
+  </si>
+  <si>
+    <t>gagal connect, sap</t>
+  </si>
+  <si>
+    <t>tidak bisa conect SAP</t>
+  </si>
+  <si>
+    <t>visa, teams</t>
+  </si>
+  <si>
+    <t>teams tidak dapat dibuka di visa</t>
+  </si>
+  <si>
+    <t>cara atasi tidak bisa buka teams</t>
+  </si>
+  <si>
+    <t>teams tidak bisa dibuka saat diakses lewat visa</t>
+  </si>
+  <si>
+    <t>network, certificate</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect wifi corporate network, sudah mencoba sesuai instruksi masih tidak bisa</t>
+  </si>
+  <si>
+    <t>Wifi byod</t>
+  </si>
+  <si>
+    <t>network, wifi, gagal connect</t>
+  </si>
+  <si>
+    <t>Error wifi corporate</t>
+  </si>
+  <si>
+    <t>network, certificate, gagal connect</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect corporate network masalah Certificate</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect jaringan corporate network</t>
+  </si>
+  <si>
+    <t>gagal connect, certificate, wifi, network</t>
+  </si>
+  <si>
+    <t>laptop lenovo, tidak bisa connect wifi corporate network issue certificate, sudah coba cara update cert dengan cmd namun tetap tidak bisa</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect wifi corporate network</t>
+  </si>
+  <si>
+    <t>Cant login corporate network</t>
+  </si>
+  <si>
+    <t>network, wifi</t>
+  </si>
+  <si>
+    <t>Wifi corp need certificate</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect wifi corporate</t>
+  </si>
+  <si>
+    <t>Wifi tidak ada</t>
+  </si>
+  <si>
+    <t>gagal update certificate manual</t>
+  </si>
+  <si>
+    <t>gagal connect, wifi, network, certificate</t>
+  </si>
+  <si>
+    <t>tidak bisa connect ke wifi corporate network, notifikasi update certificate</t>
+  </si>
+  <si>
+    <t>gagal connect, certificate</t>
+  </si>
+  <si>
+    <t>Cant connect because you need a certificate to sign in. Contact your IT support person.</t>
+  </si>
+  <si>
+    <t>corporate netwprk</t>
+  </si>
+  <si>
+    <t>Tidak bisa konek internet</t>
+  </si>
+  <si>
+    <t>Tidak bisa konek wifi kantor maupun thetering HP</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect wifi kantor</t>
+  </si>
+  <si>
+    <t>Tidak bisa perso</t>
+  </si>
+  <si>
+    <t>Tidak bisa perso lagi</t>
+  </si>
+  <si>
+    <t>tidak bisa perso paradise</t>
+  </si>
+  <si>
+    <t>GAGAL PERSO PARADISE</t>
+  </si>
+  <si>
+    <t>setting perso paradise</t>
+  </si>
+  <si>
+    <t>Gagal Perso Paradise</t>
+  </si>
+  <si>
+    <t>Perso kartu failed</t>
+  </si>
+  <si>
+    <t>gagal perso DSC</t>
+  </si>
+  <si>
+    <t>Proses ganti kartu tidak dapat dilanjutkan karena perso gagal</t>
+  </si>
+  <si>
+    <t>tidak bisa perso ket gagal perso</t>
+  </si>
+  <si>
+    <t>Minta bantu error DSC sesi telah berakhir</t>
+  </si>
+  <si>
+    <t>Aplikasi DSC passport gagal login</t>
+  </si>
+  <si>
+    <t>DSC Error sesi berakhir</t>
+  </si>
+  <si>
+    <t>DSC selalu session berakhir</t>
+  </si>
+  <si>
+    <t>Aplikasi dsc tidak bisa dibuka</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect dsc</t>
+  </si>
+  <si>
+    <t>Aplikasi DSC Blank</t>
+  </si>
+  <si>
+    <t>perso, software center, sccm</t>
+  </si>
+  <si>
+    <t>panduan install aplikasi perso</t>
+  </si>
+  <si>
+    <t>cara install aplikasi perso</t>
+  </si>
+  <si>
+    <t>apa itu perso</t>
+  </si>
+  <si>
+    <t>perso itu apa sih</t>
+  </si>
+  <si>
+    <t>bagaimana cara menggunakan perso</t>
+  </si>
+  <si>
+    <t>cara pakai perso</t>
+  </si>
+  <si>
+    <t>Setting printer kasir</t>
+  </si>
+  <si>
+    <t>Tidak bisa PRINT</t>
+  </si>
+  <si>
+    <t>tidak bisa print</t>
+  </si>
+  <si>
+    <t>Tidak Bisa Akses Safora dan MEC</t>
+  </si>
+  <si>
+    <t>Tidak bisa print</t>
+  </si>
+  <si>
+    <t>PRINT KASIR ERROR</t>
+  </si>
+  <si>
+    <t>cara connect vpn</t>
+  </si>
+  <si>
     <t>cara connect ke visa</t>
   </si>
   <si>
@@ -4257,9 +4725,6 @@
     <t>cara setting email</t>
   </si>
   <si>
-    <t>gagal connect, vpn</t>
-  </si>
-  <si>
     <t>gagal connect ke vpn</t>
   </si>
   <si>
@@ -4311,9 +4776,6 @@
     <t>tidak bisa connect ke wifi</t>
   </si>
   <si>
-    <t>tidak bisa connect ke corporate network</t>
-  </si>
-  <si>
     <t>reset password, password</t>
   </si>
   <si>
@@ -4437,7 +4899,7 @@
     <t>bagaimana cara login ke onedrive</t>
   </si>
   <si>
-    <t>create ticket, wifi</t>
+    <t>ticket, wifi</t>
   </si>
   <si>
     <t>bagaimana cara buat ticket dan connect wifi</t>
@@ -4536,9 +4998,6 @@
     <t>cara membuat ticket visa management dan connect visa</t>
   </si>
   <si>
-    <t>vpn, ticket</t>
-  </si>
-  <si>
     <t>saya ingin buat ticket visa lalu saya juga ingin tahu cara connect vpn</t>
   </si>
   <si>
@@ -4594,6 +5053,123 @@
   </si>
   <si>
     <t>cara menggunakan bot ditaaja</t>
+  </si>
+  <si>
+    <t>flow menghandle ticket</t>
+  </si>
+  <si>
+    <t>cara buat ticket di ditaaja</t>
+  </si>
+  <si>
+    <t>aplikasi moana error</t>
+  </si>
+  <si>
+    <t>Error reset moana sdh 6x failed</t>
+  </si>
+  <si>
+    <t>aplikasi moana error apakah ada source  download moana.apk yang terbaru ??</t>
+  </si>
+  <si>
+    <t>Gagal input Moana dan wifi kantor</t>
+  </si>
+  <si>
+    <t>Wifi tidak connect (LOS)</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect ke corporate network</t>
+  </si>
+  <si>
+    <t>Koneksi wifi suka putus</t>
+  </si>
+  <si>
+    <t>Tidak bisa connect WIFI</t>
+  </si>
+  <si>
+    <t>cara mengatasi tidak bisa buka teams</t>
+  </si>
+  <si>
+    <t>gagal buka teams</t>
+  </si>
+  <si>
+    <t>solusi tidak bisa buka teams pada visa</t>
+  </si>
+  <si>
+    <t>Tdk bisa connect wifi corporate network</t>
+  </si>
+  <si>
+    <t>Laptop atasan saya d lt.23 tidak bisa connect corporate network</t>
+  </si>
+  <si>
+    <t>Tidak bisa konek corporate</t>
+  </si>
+  <si>
+    <t>Wifi Coorporate Network</t>
+  </si>
+  <si>
+    <t>Tdk bisa connect ke coorp network</t>
+  </si>
+  <si>
+    <t>kesulitan connect ke wifi corporate network</t>
+  </si>
+  <si>
+    <t>Ngga bisa internet</t>
+  </si>
+  <si>
+    <t>Tidak bisa akses ke corporate network</t>
+  </si>
+  <si>
+    <t>gagal connect, wifi, network</t>
+  </si>
+  <si>
+    <t>TIDAK BS UPDATE FILE PERSO</t>
+  </si>
+  <si>
+    <t>Gagal Perso via Paradise</t>
+  </si>
+  <si>
+    <t>Failed perso perdana online</t>
+  </si>
+  <si>
+    <t>Tidak bisa perso paradise</t>
+  </si>
+  <si>
+    <t>Gagal perso via DSC. Notif selalu failed</t>
+  </si>
+  <si>
+    <t>Tidak bisa perso DSC di laptop CSR</t>
+  </si>
+  <si>
+    <t>Minta bantu tidak bisa login DSC error sesi anda telah berakhir</t>
+  </si>
+  <si>
+    <t>Tdk bisa login DSC</t>
+  </si>
+  <si>
+    <t>dsc tidak bisa diakses</t>
+  </si>
+  <si>
+    <t>cara menggunakan perso</t>
+  </si>
+  <si>
+    <t>panduan cara menggunakan perso</t>
+  </si>
+  <si>
+    <t>Tidak bisa print kasir</t>
+  </si>
+  <si>
+    <t>Gak bisa ngeprint dr laptop</t>
+  </si>
+  <si>
+    <t>Setting printer di laptop</t>
+  </si>
+  <si>
+    <t>Setting driver printer</t>
+  </si>
+  <si>
+    <t>printer tdk bs connect dr laptop</t>
+  </si>
+  <si>
+    <t>cara connect ke vpn gimana ya?</t>
   </si>
 </sst>
 </file>
@@ -4602,11 +5178,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4622,22 +5198,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4651,18 +5219,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4681,9 +5249,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4696,47 +5272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4751,6 +5288,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4759,7 +5342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4780,13 +5363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4804,7 +5387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4816,7 +5423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4828,19 +5447,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,7 +5501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4864,31 +5519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4900,71 +5531,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4987,16 +5579,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5016,6 +5608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5023,21 +5630,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5070,156 +5662,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -5586,7 +6184,7 @@
         <f>MAX(A2:A9999)</f>
         <v>1359</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>44977</v>
       </c>
     </row>
@@ -20009,15 +20607,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B758"/>
   <sheetViews>
-    <sheetView topLeftCell="B642" workbookViewId="0">
-      <selection activeCell="B648" sqref="B648"/>
+    <sheetView topLeftCell="A750" workbookViewId="0">
+      <selection activeCell="B759" sqref="B759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="104" customWidth="1"/>
+    <col min="1" max="1" width="88.3" customWidth="1"/>
     <col min="2" max="2" width="156.286666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20415,7 +21013,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
         <v>76</v>
@@ -20495,10 +21093,10 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -20623,10 +21221,10 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -20786,12 +21384,12 @@
         <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B97" t="s">
         <v>134</v>
@@ -20842,12 +21440,12 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B104" t="s">
         <v>882</v>
@@ -20866,7 +21464,7 @@
         <v>67</v>
       </c>
       <c r="B106" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -20882,7 +21480,7 @@
         <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -20911,10 +21509,10 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>1277</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -20927,7 +21525,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B114" t="s">
         <v>165</v>
@@ -20935,18 +21533,18 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B115" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B116" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -21018,7 +21616,7 @@
         <v>390</v>
       </c>
       <c r="B125" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -21039,18 +21637,18 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>1283</v>
       </c>
       <c r="B128" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>1285</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -21098,7 +21696,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -21106,7 +21704,7 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -21114,7 +21712,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -21127,10 +21725,10 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>1290</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -21146,7 +21744,7 @@
         <v>67</v>
       </c>
       <c r="B141" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -21154,7 +21752,7 @@
         <v>67</v>
       </c>
       <c r="B142" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -21162,7 +21760,7 @@
         <v>67</v>
       </c>
       <c r="B143" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -21170,12 +21768,12 @@
         <v>67</v>
       </c>
       <c r="B144" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>1295</v>
       </c>
       <c r="B145" t="s">
         <v>211</v>
@@ -21186,7 +21784,7 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>1287</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -21210,7 +21808,7 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -21306,7 +21904,7 @@
         <v>26</v>
       </c>
       <c r="B161" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -21322,7 +21920,7 @@
         <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -21407,538 +22005,538 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="B174" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="B175" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="B176" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B178" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B179" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="B180" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="B183" t="s">
-        <v>310</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>311</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>1291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>67</v>
+        <v>1301</v>
       </c>
       <c r="B185" t="s">
-        <v>314</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B186" t="s">
-        <v>1292</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="B188" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="B189" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="B190" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="B191" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="B196" t="s">
-        <v>335</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="B197" t="s">
-        <v>1293</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="B198" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B199" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="B200" t="s">
-        <v>342</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="B201" t="s">
-        <v>1294</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="B203" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B209" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="B210" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>362</v>
+        <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="B212" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B213" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>368</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>370</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B216" t="s">
-        <v>1295</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>9</v>
+        <v>830</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>830</v>
+        <v>75</v>
       </c>
       <c r="B219" t="s">
-        <v>1296</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="B220" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B221" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>380</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>20</v>
+        <v>1254</v>
       </c>
       <c r="B224" t="s">
-        <v>383</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>1254</v>
+        <v>75</v>
       </c>
       <c r="B225" t="s">
-        <v>1297</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="B226" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>247</v>
+        <v>388</v>
       </c>
       <c r="B227" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B228" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="B229" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B230" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
       <c r="B231" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B232" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B233" t="s">
-        <v>400</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>401</v>
+        <v>61</v>
       </c>
       <c r="B234" t="s">
-        <v>1298</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B235" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B236" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>142</v>
+        <v>413</v>
       </c>
       <c r="B237" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>413</v>
+        <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="B239" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>416</v>
+        <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -21946,39 +22544,39 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>26</v>
+        <v>343</v>
       </c>
       <c r="B242" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="B243" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>431</v>
+        <v>75</v>
       </c>
       <c r="B244" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B245" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -21986,223 +22584,223 @@
         <v>61</v>
       </c>
       <c r="B246" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>61</v>
+        <v>440</v>
       </c>
       <c r="B247" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="B248" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="B249" t="s">
-        <v>443</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B250" t="s">
-        <v>1299</v>
+        <v>447</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>67</v>
+        <v>448</v>
       </c>
       <c r="B251" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>448</v>
+        <v>303</v>
       </c>
       <c r="B252" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>303</v>
+        <v>1254</v>
       </c>
       <c r="B253" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>1254</v>
+        <v>453</v>
       </c>
       <c r="B254" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>453</v>
+        <v>301</v>
       </c>
       <c r="B255" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B256" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="B257" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="B258" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>88</v>
+        <v>462</v>
       </c>
       <c r="B259" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>462</v>
+        <v>88</v>
       </c>
       <c r="B260" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="B261" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>343</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B263" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B264" t="s">
-        <v>476</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>26</v>
+        <v>479</v>
       </c>
       <c r="B265" t="s">
-        <v>1300</v>
+        <v>480</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>479</v>
+        <v>26</v>
       </c>
       <c r="B266" t="s">
-        <v>480</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B267" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>484</v>
+        <v>67</v>
       </c>
       <c r="B268" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>9</v>
+        <v>488</v>
       </c>
       <c r="B270" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B271" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B272" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>492</v>
+        <v>75</v>
       </c>
       <c r="B273" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -22210,15 +22808,15 @@
         <v>75</v>
       </c>
       <c r="B274" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B275" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -22226,199 +22824,199 @@
         <v>88</v>
       </c>
       <c r="B276" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B277" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
       <c r="B279" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B280" t="s">
-        <v>503</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>504</v>
+        <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>1302</v>
+        <v>506</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>9</v>
+        <v>507</v>
       </c>
       <c r="B282" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>507</v>
+        <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="B284" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B286" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="B287" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="B288" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>61</v>
+        <v>532</v>
       </c>
       <c r="B289" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>532</v>
+        <v>102</v>
       </c>
       <c r="B290" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="B291" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>26</v>
+        <v>542</v>
       </c>
       <c r="B293" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>542</v>
+        <v>109</v>
       </c>
       <c r="B294" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>109</v>
+        <v>548</v>
       </c>
       <c r="B295" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B296" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>550</v>
+        <v>16</v>
       </c>
       <c r="B297" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="B298" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="B299" t="s">
-        <v>553</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B300" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -22426,7 +23024,7 @@
         <v>35</v>
       </c>
       <c r="B301" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -22434,7 +23032,7 @@
         <v>35</v>
       </c>
       <c r="B302" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -22442,7 +23040,7 @@
         <v>35</v>
       </c>
       <c r="B303" t="s">
-        <v>1306</v>
+        <v>35</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -22450,239 +23048,239 @@
         <v>35</v>
       </c>
       <c r="B304" t="s">
-        <v>35</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>35</v>
+        <v>565</v>
       </c>
       <c r="B305" t="s">
-        <v>1307</v>
+        <v>566</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>565</v>
+        <v>109</v>
       </c>
       <c r="B306" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>109</v>
+        <v>303</v>
       </c>
       <c r="B307" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B308" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>245</v>
+        <v>401</v>
       </c>
       <c r="B309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="B310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>14</v>
+        <v>1319</v>
       </c>
       <c r="B312" t="s">
-        <v>578</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>579</v>
+        <v>61</v>
       </c>
       <c r="B313" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B314" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B315" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>142</v>
+        <v>592</v>
       </c>
       <c r="B316" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B317" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>594</v>
+        <v>1321</v>
       </c>
       <c r="B318" t="s">
-        <v>595</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B319" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B320" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="B321" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>484</v>
+        <v>61</v>
       </c>
       <c r="B322" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>61</v>
+        <v>604</v>
       </c>
       <c r="B323" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B324" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>609</v>
+        <v>247</v>
       </c>
       <c r="B325" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="B326" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>399</v>
+        <v>88</v>
       </c>
       <c r="B327" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B328" t="s">
-        <v>614</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B329" t="s">
-        <v>1308</v>
+        <v>617</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B330" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B331" t="s">
-        <v>618</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B332" t="s">
-        <v>1309</v>
+        <v>622</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="B333" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -22690,87 +23288,87 @@
         <v>453</v>
       </c>
       <c r="B334" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>453</v>
+        <v>67</v>
       </c>
       <c r="B335" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="B336" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>219</v>
+        <v>630</v>
       </c>
       <c r="B337" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>630</v>
+        <v>142</v>
       </c>
       <c r="B338" t="s">
-        <v>631</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>142</v>
+        <v>635</v>
       </c>
       <c r="B339" t="s">
-        <v>1310</v>
+        <v>636</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B340" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B341" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>639</v>
+        <v>61</v>
       </c>
       <c r="B342" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>61</v>
+        <v>642</v>
       </c>
       <c r="B343" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>642</v>
+        <v>67</v>
       </c>
       <c r="B344" t="s">
-        <v>643</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -22778,39 +23376,39 @@
         <v>67</v>
       </c>
       <c r="B345" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>67</v>
+        <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>1312</v>
+        <v>647</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="B347" t="s">
-        <v>647</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>67</v>
+        <v>649</v>
       </c>
       <c r="B348" t="s">
-        <v>1313</v>
+        <v>650</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B349" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -22818,407 +23416,407 @@
         <v>651</v>
       </c>
       <c r="B350" t="s">
-        <v>652</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>651</v>
+        <v>1330</v>
       </c>
       <c r="B351" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>1315</v>
+        <v>651</v>
       </c>
       <c r="B352" t="s">
-        <v>1316</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>651</v>
+        <v>142</v>
       </c>
       <c r="B353" t="s">
-        <v>1317</v>
+        <v>654</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B354" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>61</v>
+        <v>660</v>
       </c>
       <c r="B355" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B356" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B357" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>666</v>
+        <v>343</v>
       </c>
       <c r="B358" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>343</v>
+        <v>61</v>
       </c>
       <c r="B359" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B360" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B361" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B362" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>61</v>
+        <v>1254</v>
       </c>
       <c r="B363" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>1254</v>
+        <v>453</v>
       </c>
       <c r="B364" t="s">
-        <v>675</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>453</v>
+        <v>678</v>
       </c>
       <c r="B365" t="s">
-        <v>1318</v>
+        <v>679</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>678</v>
+        <v>317</v>
       </c>
       <c r="B366" t="s">
-        <v>679</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="B367" t="s">
-        <v>1319</v>
+        <v>682</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>61</v>
+        <v>380</v>
       </c>
       <c r="B368" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="B369" t="s">
-        <v>683</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>39</v>
+        <v>685</v>
       </c>
       <c r="B370" t="s">
-        <v>1320</v>
+        <v>686</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>685</v>
+        <v>39</v>
       </c>
       <c r="B371" t="s">
-        <v>686</v>
+        <v>40</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B372" t="s">
-        <v>40</v>
+        <v>689</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>102</v>
+        <v>690</v>
       </c>
       <c r="B373" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B374" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B375" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B376" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>698</v>
+        <v>16</v>
       </c>
       <c r="B377" t="s">
-        <v>699</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="B378" t="s">
-        <v>1321</v>
+        <v>701</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="B379" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B380" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="B381" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="B382" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B383" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>61</v>
+        <v>343</v>
       </c>
       <c r="B384" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="B385" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>16</v>
+        <v>715</v>
       </c>
       <c r="B386" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="B387" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="B388" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B389" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>721</v>
+        <v>20</v>
       </c>
       <c r="B390" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>20</v>
+        <v>724</v>
       </c>
       <c r="B391" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>724</v>
+        <v>548</v>
       </c>
       <c r="B392" t="s">
-        <v>725</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="B393" t="s">
-        <v>1322</v>
+        <v>729</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="B394" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B395" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B396" t="s">
-        <v>733</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B397" t="s">
-        <v>1323</v>
+        <v>736</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="B398" t="s">
-        <v>736</v>
+        <v>468</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>331</v>
+        <v>738</v>
       </c>
       <c r="B399" t="s">
-        <v>468</v>
+        <v>739</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>738</v>
+        <v>26</v>
       </c>
       <c r="B400" t="s">
-        <v>739</v>
+        <v>26</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -23226,71 +23824,71 @@
         <v>26</v>
       </c>
       <c r="B401" t="s">
-        <v>26</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B402" t="s">
-        <v>1324</v>
+        <v>742</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>61</v>
+        <v>743</v>
       </c>
       <c r="B403" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>743</v>
+        <v>102</v>
       </c>
       <c r="B404" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B405" t="s">
-        <v>745</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>484</v>
+        <v>26</v>
       </c>
       <c r="B406" t="s">
-        <v>1325</v>
+        <v>748</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>26</v>
+        <v>749</v>
       </c>
       <c r="B407" t="s">
-        <v>748</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>749</v>
+        <v>61</v>
       </c>
       <c r="B408" t="s">
-        <v>1326</v>
+        <v>752</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>61</v>
+        <v>753</v>
       </c>
       <c r="B409" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -23298,63 +23896,63 @@
         <v>753</v>
       </c>
       <c r="B410" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>753</v>
+        <v>548</v>
       </c>
       <c r="B411" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>548</v>
+        <v>1342</v>
       </c>
       <c r="B412" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>1327</v>
+        <v>109</v>
       </c>
       <c r="B413" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="B414" t="s">
-        <v>762</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>763</v>
+        <v>9</v>
       </c>
       <c r="B415" t="s">
-        <v>1328</v>
+        <v>771</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>9</v>
+        <v>773</v>
       </c>
       <c r="B416" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B417" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -23362,15 +23960,15 @@
         <v>775</v>
       </c>
       <c r="B418" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>775</v>
+        <v>431</v>
       </c>
       <c r="B419" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -23378,15 +23976,15 @@
         <v>431</v>
       </c>
       <c r="B420" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="B421" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -23394,55 +23992,55 @@
         <v>453</v>
       </c>
       <c r="B422" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>453</v>
+        <v>16</v>
       </c>
       <c r="B423" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B424" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B425" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B426" t="s">
-        <v>785</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>67</v>
+        <v>1254</v>
       </c>
       <c r="B427" t="s">
-        <v>1329</v>
+        <v>788</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>1254</v>
+        <v>67</v>
       </c>
       <c r="B428" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -23450,351 +24048,351 @@
         <v>67</v>
       </c>
       <c r="B429" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>67</v>
+        <v>1345</v>
       </c>
       <c r="B430" t="s">
-        <v>790</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>1330</v>
+        <v>794</v>
       </c>
       <c r="B431" t="s">
-        <v>1331</v>
+        <v>795</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>794</v>
+        <v>48</v>
       </c>
       <c r="B432" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>48</v>
+        <v>797</v>
       </c>
       <c r="B433" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>797</v>
+        <v>320</v>
       </c>
       <c r="B434" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="B435" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>61</v>
+        <v>803</v>
       </c>
       <c r="B436" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>803</v>
+        <v>88</v>
       </c>
       <c r="B437" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>88</v>
+        <v>806</v>
       </c>
       <c r="B438" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>806</v>
+        <v>16</v>
       </c>
       <c r="B439" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>16</v>
+        <v>1347</v>
       </c>
       <c r="B440" t="s">
-        <v>808</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>1332</v>
+        <v>753</v>
       </c>
       <c r="B441" t="s">
-        <v>1333</v>
+        <v>813</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>753</v>
+        <v>61</v>
       </c>
       <c r="B442" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B443" t="s">
-        <v>814</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>26</v>
+        <v>820</v>
       </c>
       <c r="B444" t="s">
-        <v>1334</v>
+        <v>821</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B445" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>822</v>
+        <v>142</v>
       </c>
       <c r="B446" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B447" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="B448" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="B449" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="B450" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="B451" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>106</v>
+        <v>830</v>
       </c>
       <c r="B452" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B453" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>833</v>
+        <v>61</v>
       </c>
       <c r="B454" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B455" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B456" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="B457" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>407</v>
+        <v>844</v>
       </c>
       <c r="B458" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>844</v>
+        <v>247</v>
       </c>
       <c r="B459" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>247</v>
+        <v>847</v>
       </c>
       <c r="B460" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B461" t="s">
-        <v>848</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>849</v>
+        <v>274</v>
       </c>
       <c r="B462" t="s">
-        <v>1335</v>
+        <v>852</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>274</v>
+        <v>855</v>
       </c>
       <c r="B463" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>855</v>
+        <v>26</v>
       </c>
       <c r="B464" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>26</v>
+        <v>861</v>
       </c>
       <c r="B465" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B466" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B467" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>865</v>
+        <v>453</v>
       </c>
       <c r="B468" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>453</v>
+        <v>868</v>
       </c>
       <c r="B469" t="s">
-        <v>867</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>868</v>
+        <v>67</v>
       </c>
       <c r="B470" t="s">
-        <v>1336</v>
+        <v>871</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>67</v>
+        <v>872</v>
       </c>
       <c r="B471" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>872</v>
+        <v>61</v>
       </c>
       <c r="B472" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -23802,295 +24400,295 @@
         <v>61</v>
       </c>
       <c r="B473" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B474" t="s">
-        <v>877</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>83</v>
+        <v>878</v>
       </c>
       <c r="B475" t="s">
-        <v>1337</v>
+        <v>880</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>878</v>
+        <v>1353</v>
       </c>
       <c r="B476" t="s">
-        <v>880</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>1338</v>
+        <v>326</v>
       </c>
       <c r="B477" t="s">
-        <v>1339</v>
+        <v>886</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>326</v>
+        <v>1355</v>
       </c>
       <c r="B478" t="s">
-        <v>886</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>887</v>
+        <v>431</v>
       </c>
       <c r="B479" t="s">
-        <v>888</v>
+        <v>30</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>431</v>
+        <v>889</v>
       </c>
       <c r="B480" t="s">
-        <v>30</v>
+        <v>890</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B481" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>891</v>
+        <v>22</v>
       </c>
       <c r="B482" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B483" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>61</v>
+        <v>895</v>
       </c>
       <c r="B484" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B485" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>897</v>
+        <v>142</v>
       </c>
       <c r="B486" t="s">
-        <v>898</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>83</v>
+        <v>905</v>
       </c>
       <c r="B487" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>905</v>
+        <v>390</v>
       </c>
       <c r="B488" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>390</v>
+        <v>910</v>
       </c>
       <c r="B489" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B490" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="B491" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B492" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>920</v>
+        <v>453</v>
       </c>
       <c r="B493" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>453</v>
+        <v>88</v>
       </c>
       <c r="B494" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>88</v>
+        <v>1254</v>
       </c>
       <c r="B495" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>1254</v>
+        <v>67</v>
       </c>
       <c r="B496" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>67</v>
+        <v>1358</v>
       </c>
       <c r="B497" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>935</v>
+        <v>16</v>
       </c>
       <c r="B498" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>16</v>
+        <v>1359</v>
       </c>
       <c r="B499" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>941</v>
+        <v>9</v>
       </c>
       <c r="B500" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>9</v>
+        <v>637</v>
       </c>
       <c r="B501" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>637</v>
+        <v>331</v>
       </c>
       <c r="B502" t="s">
-        <v>944</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>945</v>
+        <v>100</v>
       </c>
       <c r="B503" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>100</v>
+        <v>948</v>
       </c>
       <c r="B504" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B505" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>950</v>
+        <v>26</v>
       </c>
       <c r="B506" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>26</v>
+        <v>1361</v>
       </c>
       <c r="B507" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>1340</v>
+        <v>960</v>
       </c>
       <c r="B508" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>960</v>
+        <v>9</v>
       </c>
       <c r="B509" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -24098,7 +24696,7 @@
         <v>9</v>
       </c>
       <c r="B510" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -24106,95 +24704,95 @@
         <v>9</v>
       </c>
       <c r="B511" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="B512" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="B513" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>9</v>
+        <v>1362</v>
       </c>
       <c r="B514" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>1341</v>
+        <v>61</v>
       </c>
       <c r="B515" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B516" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>14</v>
+        <v>979</v>
       </c>
       <c r="B517" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B518" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>981</v>
+        <v>39</v>
       </c>
       <c r="B519" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>39</v>
+        <v>1363</v>
       </c>
       <c r="B520" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>1342</v>
+        <v>9</v>
       </c>
       <c r="B521" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>9</v>
+        <v>986</v>
       </c>
       <c r="B522" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -24202,143 +24800,143 @@
         <v>986</v>
       </c>
       <c r="B523" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B524" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>989</v>
+        <v>109</v>
       </c>
       <c r="B525" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>109</v>
+        <v>992</v>
       </c>
       <c r="B526" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B527" t="s">
-        <v>993</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B528" t="s">
-        <v>1343</v>
+        <v>997</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B529" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>999</v>
+        <v>142</v>
       </c>
       <c r="B530" t="s">
-        <v>1000</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>1344</v>
+        <v>1366</v>
       </c>
       <c r="B531" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>1345</v>
+        <v>1366</v>
       </c>
       <c r="B532" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>1345</v>
+        <v>1367</v>
       </c>
       <c r="B533" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>1346</v>
+        <v>1012</v>
       </c>
       <c r="B534" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>1012</v>
+        <v>142</v>
       </c>
       <c r="B535" t="s">
-        <v>1013</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>83</v>
+        <v>1016</v>
       </c>
       <c r="B536" t="s">
-        <v>1347</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>1016</v>
+        <v>142</v>
       </c>
       <c r="B537" t="s">
-        <v>1017</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>1344</v>
+        <v>142</v>
       </c>
       <c r="B538" t="s">
-        <v>1019</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>1344</v>
+        <v>1023</v>
       </c>
       <c r="B539" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>1023</v>
+        <v>26</v>
       </c>
       <c r="B540" t="s">
-        <v>1024</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -24346,375 +24944,375 @@
         <v>26</v>
       </c>
       <c r="B541" t="s">
-        <v>1348</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="B542" t="s">
-        <v>1349</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>1344</v>
+        <v>20</v>
       </c>
       <c r="B543" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>20</v>
+        <v>1374</v>
       </c>
       <c r="B544" t="s">
-        <v>1040</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="B545" t="s">
-        <v>1351</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="B546" t="s">
-        <v>1352</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="B547" t="s">
-        <v>1353</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="B548" t="s">
-        <v>1354</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>1350</v>
+        <v>26</v>
       </c>
       <c r="B549" t="s">
-        <v>1355</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>26</v>
+        <v>1047</v>
       </c>
       <c r="B550" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>1047</v>
+        <v>753</v>
       </c>
       <c r="B551" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>753</v>
+        <v>1051</v>
       </c>
       <c r="B552" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>1051</v>
+        <v>343</v>
       </c>
       <c r="B553" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>343</v>
+        <v>1062</v>
       </c>
       <c r="B554" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>1062</v>
+        <v>1254</v>
       </c>
       <c r="B555" t="s">
-        <v>1063</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>1254</v>
+        <v>1381</v>
       </c>
       <c r="B556" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
       <c r="B557" t="s">
-        <v>1358</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>1357</v>
+        <v>9</v>
       </c>
       <c r="B558" t="s">
-        <v>1359</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>9</v>
+        <v>1261</v>
       </c>
       <c r="B559" t="s">
-        <v>1085</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>1261</v>
+        <v>479</v>
       </c>
       <c r="B560" t="s">
-        <v>1360</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>479</v>
+        <v>1279</v>
       </c>
       <c r="B561" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>1275</v>
+        <v>453</v>
       </c>
       <c r="B562" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>453</v>
+        <v>1096</v>
       </c>
       <c r="B563" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>1096</v>
+        <v>1012</v>
       </c>
       <c r="B564" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>1012</v>
+        <v>1099</v>
       </c>
       <c r="B565" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>1099</v>
+        <v>9</v>
       </c>
       <c r="B566" t="s">
-        <v>1100</v>
+        <v>885</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="B567" t="s">
-        <v>885</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>390</v>
+        <v>1111</v>
       </c>
       <c r="B568" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>1111</v>
+        <v>100</v>
       </c>
       <c r="B569" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>100</v>
+        <v>1114</v>
       </c>
       <c r="B570" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>1114</v>
+        <v>1374</v>
       </c>
       <c r="B571" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>1350</v>
+        <v>326</v>
       </c>
       <c r="B572" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>326</v>
+        <v>753</v>
       </c>
       <c r="B573" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>753</v>
+        <v>1385</v>
       </c>
       <c r="B574" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="B575" t="s">
-        <v>1122</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>1330</v>
+        <v>109</v>
       </c>
       <c r="B576" t="s">
-        <v>1362</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>109</v>
+        <v>1131</v>
       </c>
       <c r="B577" t="s">
-        <v>1363</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1131</v>
+        <v>20</v>
       </c>
       <c r="B578" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="B579" t="s">
-        <v>1137</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>453</v>
+        <v>26</v>
       </c>
       <c r="B580" t="s">
-        <v>1364</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>26</v>
+        <v>666</v>
       </c>
       <c r="B581" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>666</v>
+        <v>67</v>
       </c>
       <c r="B582" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>67</v>
+        <v>1389</v>
       </c>
       <c r="B583" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1147</v>
+        <v>1389</v>
       </c>
       <c r="B584" t="s">
-        <v>1148</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>1147</v>
+        <v>9</v>
       </c>
       <c r="B585" t="s">
-        <v>1365</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B586" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>61</v>
+        <v>1159</v>
       </c>
       <c r="B587" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -24722,7 +25320,7 @@
         <v>1159</v>
       </c>
       <c r="B588" t="s">
-        <v>1158</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -24730,191 +25328,191 @@
         <v>1159</v>
       </c>
       <c r="B589" t="s">
-        <v>1366</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>1159</v>
+        <v>1392</v>
       </c>
       <c r="B590" t="s">
-        <v>1160</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1161</v>
+        <v>1394</v>
       </c>
       <c r="B591" t="s">
-        <v>1162</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1367</v>
+        <v>1394</v>
       </c>
       <c r="B592" t="s">
-        <v>1368</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1367</v>
+        <v>219</v>
       </c>
       <c r="B593" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="B594" t="s">
-        <v>1167</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="B595" t="s">
-        <v>1369</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>1350</v>
+        <v>1174</v>
       </c>
       <c r="B596" t="s">
-        <v>1370</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>1174</v>
+        <v>1398</v>
       </c>
       <c r="B597" t="s">
-        <v>1175</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>1178</v>
+        <v>1400</v>
       </c>
       <c r="B598" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>1371</v>
+        <v>847</v>
       </c>
       <c r="B599" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>847</v>
+        <v>1185</v>
       </c>
       <c r="B600" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1185</v>
+        <v>142</v>
       </c>
       <c r="B601" t="s">
-        <v>1186</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>142</v>
+        <v>1402</v>
       </c>
       <c r="B602" t="s">
-        <v>1372</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1373</v>
+        <v>142</v>
       </c>
       <c r="B603" t="s">
-        <v>1374</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1200</v>
+        <v>941</v>
       </c>
       <c r="B604" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>941</v>
+        <v>67</v>
       </c>
       <c r="B605" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B606" t="s">
-        <v>1206</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>9</v>
+        <v>542</v>
       </c>
       <c r="B607" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>542</v>
+        <v>1213</v>
       </c>
       <c r="B608" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>1213</v>
+        <v>1406</v>
       </c>
       <c r="B609" t="s">
-        <v>1214</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1375</v>
+        <v>1219</v>
       </c>
       <c r="B610" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1219</v>
+        <v>1111</v>
       </c>
       <c r="B611" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1111</v>
+        <v>75</v>
       </c>
       <c r="B612" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -24922,71 +25520,71 @@
         <v>75</v>
       </c>
       <c r="B613" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B614" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>26</v>
+        <v>1408</v>
       </c>
       <c r="B615" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>1377</v>
+        <v>16</v>
       </c>
       <c r="B616" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>16</v>
+        <v>311</v>
       </c>
       <c r="B617" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="B618" t="s">
-        <v>1246</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B619" t="s">
-        <v>1378</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B620" t="s">
-        <v>1379</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B621" t="s">
-        <v>1380</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -24994,7 +25592,7 @@
         <v>142</v>
       </c>
       <c r="B622" t="s">
-        <v>1381</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -25002,71 +25600,71 @@
         <v>142</v>
       </c>
       <c r="B623" t="s">
-        <v>1382</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>142</v>
+        <v>1415</v>
       </c>
       <c r="B624" t="s">
-        <v>1383</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1384</v>
+        <v>1415</v>
       </c>
       <c r="B625" t="s">
-        <v>1385</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1384</v>
+        <v>1415</v>
       </c>
       <c r="B626" t="s">
-        <v>1386</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1384</v>
+        <v>142</v>
       </c>
       <c r="B627" t="s">
-        <v>1387</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>142</v>
+        <v>1272</v>
       </c>
       <c r="B628" t="s">
-        <v>1388</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B629" t="s">
-        <v>1389</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B630" t="s">
-        <v>1390</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1270</v>
+        <v>39</v>
       </c>
       <c r="B631" t="s">
-        <v>1391</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -25074,55 +25672,55 @@
         <v>39</v>
       </c>
       <c r="B632" t="s">
-        <v>1392</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="B633" t="s">
-        <v>1393</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B634" t="s">
-        <v>1394</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B635" t="s">
-        <v>1395</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>83</v>
+        <v>1428</v>
       </c>
       <c r="B636" t="s">
-        <v>1396</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1397</v>
+        <v>5</v>
       </c>
       <c r="B637" t="s">
-        <v>1398</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>5</v>
+        <v>1159</v>
       </c>
       <c r="B638" t="s">
-        <v>1399</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -25130,7 +25728,7 @@
         <v>1159</v>
       </c>
       <c r="B639" t="s">
-        <v>1400</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -25138,7 +25736,7 @@
         <v>1159</v>
       </c>
       <c r="B640" t="s">
-        <v>1401</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -25146,7 +25744,7 @@
         <v>1159</v>
       </c>
       <c r="B641" t="s">
-        <v>1402</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -25154,7 +25752,7 @@
         <v>1159</v>
       </c>
       <c r="B642" t="s">
-        <v>1403</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -25162,7 +25760,7 @@
         <v>1159</v>
       </c>
       <c r="B643" t="s">
-        <v>1404</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -25170,7 +25768,7 @@
         <v>1159</v>
       </c>
       <c r="B644" t="s">
-        <v>1405</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -25178,7 +25776,7 @@
         <v>1159</v>
       </c>
       <c r="B645" t="s">
-        <v>1406</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -25186,19 +25784,907 @@
         <v>1159</v>
       </c>
       <c r="B646" t="s">
-        <v>1407</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1408</v>
+        <v>88</v>
+      </c>
+      <c r="B647" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>88</v>
+      </c>
+      <c r="B648" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>88</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>88</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>88</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>88</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>88</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>9</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>9</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>830</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>637</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>830</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>830</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>9</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>830</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>67</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>453</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
+        <v>830</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
+        <v>9</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
+        <v>14</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
+        <v>830</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>9</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
+        <v>67</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
+        <v>343</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
+        <v>26</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" t="s">
+        <v>67</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" t="s">
+        <v>48</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" t="s">
+        <v>830</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" t="s">
+        <v>20</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" t="s">
+        <v>67</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" t="s">
+        <v>830</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" t="s">
+        <v>67</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" t="s">
+        <v>67</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" t="s">
+        <v>67</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" t="s">
+        <v>861</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" t="s">
+        <v>16</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" t="s">
+        <v>830</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" t="s">
+        <v>830</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B725" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B726" s="3" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" t="s">
+        <v>380</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" t="s">
+        <v>380</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" t="s">
+        <v>380</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" t="s">
+        <v>380</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" t="s">
+        <v>380</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" t="s">
+        <v>380</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" t="s">
+        <v>380</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" t="s">
+        <v>941</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" t="s">
+        <v>941</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" t="s">
+        <v>941</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" t="s">
+        <v>941</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" t="s">
+        <v>22</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" t="s">
+        <v>22</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" t="s">
+        <v>22</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" t="s">
+        <v>22</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" t="s">
+        <v>22</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" t="s">
+        <v>22</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" t="s">
+        <v>20</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B624">
+  <autoFilter ref="A1:B623">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25209,10 +26695,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -25234,7 +26720,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1409</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -25242,7 +26728,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1410</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -25250,15 +26736,15 @@
         <v>453</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1411</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>1412</v>
+        <v>1277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1413</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -25266,7 +26752,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1414</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -25274,7 +26760,7 @@
         <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1415</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -25282,7 +26768,7 @@
         <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1416</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -25290,7 +26776,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1417</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -25298,7 +26784,7 @@
         <v>453</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1418</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -25306,23 +26792,23 @@
         <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1419</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>1420</v>
+        <v>1575</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1421</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>1422</v>
+        <v>1577</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1423</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -25330,7 +26816,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1424</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -25338,7 +26824,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1425</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -25346,15 +26832,15 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1426</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1427</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -25362,7 +26848,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1428</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -25370,7 +26856,7 @@
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1429</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -25378,7 +26864,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1430</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -25391,26 +26877,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>1431</v>
+        <v>1585</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1432</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>1431</v>
+        <v>1585</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1433</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>1434</v>
+        <v>1588</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1435</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -25418,15 +26904,15 @@
         <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1436</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>1431</v>
+        <v>1585</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1324</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -25434,7 +26920,7 @@
         <v>986</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1437</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -25442,7 +26928,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1438</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -25450,15 +26936,15 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1439</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>1434</v>
+        <v>1588</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1440</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -25466,15 +26952,15 @@
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1441</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1442</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -25482,7 +26968,7 @@
         <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1443</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -25490,7 +26976,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1444</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -25498,7 +26984,7 @@
         <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1445</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -25506,7 +26992,7 @@
         <v>380</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1446</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -25514,7 +27000,7 @@
         <v>453</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1447</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -25522,7 +27008,7 @@
         <v>1250</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1448</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -25530,15 +27016,15 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1449</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>1450</v>
+        <v>1604</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1451</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -25546,7 +27032,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1452</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -25554,23 +27040,23 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1453</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>1454</v>
+        <v>1608</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1455</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>1456</v>
+        <v>1610</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1457</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -25578,7 +27064,7 @@
         <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1231</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -25586,15 +27072,15 @@
         <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1458</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>1459</v>
+        <v>1613</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1460</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -25602,7 +27088,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1461</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -25610,23 +27096,23 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1462</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>1463</v>
+        <v>1617</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1464</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>1465</v>
+        <v>1619</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1466</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -25634,7 +27120,7 @@
         <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1467</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -25642,15 +27128,15 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1468</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>1434</v>
+        <v>1588</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1469</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -25658,7 +27144,7 @@
         <v>453</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1470</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -25666,79 +27152,79 @@
         <v>100</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1471</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>1472</v>
+        <v>1626</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1473</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>1474</v>
+        <v>1628</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1475</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>1474</v>
+        <v>1628</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1476</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>1477</v>
+        <v>1631</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1478</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>1477</v>
+        <v>1631</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1479</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>1480</v>
+        <v>1634</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1481</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>1480</v>
+        <v>1634</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1482</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>1431</v>
+        <v>1585</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1483</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>1431</v>
+        <v>1585</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1484</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -25746,7 +27232,7 @@
         <v>380</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1485</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -25754,7 +27240,7 @@
         <v>380</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1486</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -25762,7 +27248,7 @@
         <v>380</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1487</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -25770,7 +27256,7 @@
         <v>28</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1488</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -25778,7 +27264,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1489</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -25786,7 +27272,7 @@
         <v>28</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1490</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -25794,7 +27280,7 @@
         <v>28</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1491</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -25802,15 +27288,15 @@
         <v>28</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1492</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>1463</v>
+        <v>1617</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1493</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -25818,95 +27304,95 @@
         <v>868</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1494</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1495</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1496</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1497</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>1498</v>
+        <v>1652</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1499</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>1498</v>
+        <v>1652</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1500</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1501</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1502</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>1431</v>
+        <v>1585</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1414</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>1503</v>
+        <v>1657</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1504</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>1505</v>
+        <v>1362</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1506</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1507</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -25914,15 +27400,15 @@
         <v>26</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1508</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>1422</v>
+        <v>1577</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1509</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -25930,7 +27416,7 @@
         <v>142</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1510</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -25938,7 +27424,7 @@
         <v>142</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1511</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -25946,31 +27432,31 @@
         <v>142</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1512</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1513</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1514</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1515</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -25978,7 +27464,7 @@
         <v>142</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1516</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -25986,7 +27472,7 @@
         <v>75</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1517</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -25994,7 +27480,7 @@
         <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1518</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -26002,7 +27488,7 @@
         <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1519</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -26010,7 +27496,7 @@
         <v>1159</v>
       </c>
       <c r="B99" t="s">
-        <v>1520</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -26018,23 +27504,23 @@
         <v>1159</v>
       </c>
       <c r="B100" t="s">
-        <v>1521</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>1522</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>1523</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -26042,7 +27528,375 @@
         <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>1524</v>
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>830</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>830</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>868</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>830</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>830</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>343</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>847</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>861</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>380</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>380</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>380</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>941</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>941</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>22</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
